--- a/medicine/Enfance/Les_Crêpes_de_monsieur_Loup/Les_Crêpes_de_monsieur_Loup.xlsx
+++ b/medicine/Enfance/Les_Crêpes_de_monsieur_Loup/Les_Crêpes_de_monsieur_Loup.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Les_Cr%C3%AApes_de_monsieur_Loup</t>
+          <t>Les_Crêpes_de_monsieur_Loup</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Crêpes de monsieur Loup est un album de littérature jeunesse écrit et illustré par Jan Fearnley, publié en 2000 aux éditions Gründ. 
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Les_Cr%C3%AApes_de_monsieur_Loup</t>
+          <t>Les_Crêpes_de_monsieur_Loup</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Personnages</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Monsieur Loup
 Maître coq
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Les_Cr%C3%AApes_de_monsieur_Loup</t>
+          <t>Les_Crêpes_de_monsieur_Loup</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,9 +560,11 @@
           <t>Thèmes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le regard des autres[1], les contes détournés[2],[3], l'intérêt de la lecture, de l'écriture, le loup
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le regard des autres, les contes détournés l'intérêt de la lecture, de l'écriture, le loup
 </t>
         </is>
       </c>
